--- a/test_data/data.xlsx
+++ b/test_data/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\B42AFW\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D03B50-791A-4327-8398-8808D6871173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D265457D-4E2C-4634-BDD1-FA8AFC5277BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="valid_login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>bhanu</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -345,17 +354,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/data.xlsx
+++ b/test_data/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\B42AFW\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D265457D-4E2C-4634-BDD1-FA8AFC5277BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F2093F-DBD6-45E2-A723-045A08C90224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valid_login" sheetId="1" r:id="rId1"/>
+    <sheet name="invalid_login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -356,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,4 +388,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79ACD70-09F2-45A2-9F9C-71022C71F800}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>